--- a/processed/datos.xlsx
+++ b/processed/datos.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,6 +435,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="55" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -476,23 +488,22 @@
           <t>Oficio Circular No. 349-2024.pdf</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>SGTIC/SP/Peren</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>INFORMANDO CREACION DEL DEPARTAMENTO DE COORDINACION DE POLICIA COMUNITARIA.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>ITISIENno de seccionDE PERSONAL YE - Gobermnación S-EDRECCIÓN GENERAL DE TECNOLOGIAS DE L »</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>28 de junio de 2024</t>

--- a/processed/datos.xlsx
+++ b/processed/datos.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>ITISIENno de seccionDE PERSONAL YE - Gobermnación S-EDRECCIÓN GENERAL DE TECNOLOGIAS DE L »</t>
+          <t>CITABNO de SECCION DE PERSONAL vé. Gobemación PRESION GENERAL DE TECNOLOGIAS DE LS</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr"/>
